--- a/Data/EC/NIT-9006339986.xlsx
+++ b/Data/EC/NIT-9006339986.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C60BFB95-E3BE-4219-B12E-14E1FF8F631B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{379694DB-5E48-46F3-AD55-66B5E3C9A08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0AC88208-18E8-4F79-B4C1-9BB07E921F52}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{655DC049-D339-4CE4-B4B6-C3EA91B0394D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,33 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143373237</t>
+  </si>
+  <si>
+    <t>KEVIN BARRIOS OSORIO</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
     <t>1201256725</t>
   </si>
   <si>
@@ -72,33 +99,6 @@
   </si>
   <si>
     <t>1802</t>
-  </si>
-  <si>
-    <t>1143373237</t>
-  </si>
-  <si>
-    <t>KEVIN BARRIOS OSORIO</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -512,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950F2780-E563-3A82-8A81-3239C8F1B3EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66F7D89-681F-F7F2-607C-D019F2EBAD00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4F342D-B3F1-4F02-AF2D-96EB18E140B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E33DC3-A20B-4413-9A81-6060E9EE87CB}">
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1041,10 +1041,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>72000</v>
+        <v>37800</v>
       </c>
       <c r="G16" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1055,13 +1055,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>54000</v>
@@ -1078,13 +1078,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>54000</v>
@@ -1101,13 +1101,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>54000</v>
@@ -1124,13 +1124,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>54000</v>
@@ -1147,13 +1147,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>54000</v>
@@ -1170,13 +1170,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>54000</v>
@@ -1193,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="24">
-        <v>37800</v>
+        <v>72000</v>
       </c>
       <c r="G23" s="24">
-        <v>1350000</v>
+        <v>1800000</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>

--- a/Data/EC/NIT-9006339986.xlsx
+++ b/Data/EC/NIT-9006339986.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{379694DB-5E48-46F3-AD55-66B5E3C9A08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A80707FA-28C7-4E50-B033-BFCD4DE1F83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{655DC049-D339-4CE4-B4B6-C3EA91B0394D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AD796134-3AAD-4F97-A2F1-B479D0855A99}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,40 +65,40 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1201256725</t>
+  </si>
+  <si>
+    <t>ANDRESON EXMIT ZUÑIGA ARISTIZABAL</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
     <t>1143373237</t>
   </si>
   <si>
     <t>KEVIN BARRIOS OSORIO</t>
   </si>
   <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
     <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>1201256725</t>
-  </si>
-  <si>
-    <t>ANDRESON EXMIT ZUÑIGA ARISTIZABAL</t>
-  </si>
-  <si>
-    <t>1802</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -197,22 +197,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -412,23 +412,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,10 +456,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66F7D89-681F-F7F2-607C-D019F2EBAD00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1FE67D6-0CCA-4995-BA9F-CB1831FAC2E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E33DC3-A20B-4413-9A81-6060E9EE87CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEF4F8E-205E-4395-B859-D8980D3ADC7C}">
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1041,10 +1041,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>37800</v>
+        <v>72000</v>
       </c>
       <c r="G16" s="18">
-        <v>1350000</v>
+        <v>1800000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1055,13 +1055,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>54000</v>
@@ -1078,13 +1078,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>54000</v>
@@ -1101,13 +1101,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>54000</v>
@@ -1124,13 +1124,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>54000</v>
@@ -1147,13 +1147,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>54000</v>
@@ -1170,13 +1170,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>54000</v>
@@ -1193,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="24">
-        <v>72000</v>
+        <v>37800</v>
       </c>
       <c r="G23" s="24">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>

--- a/Data/EC/NIT-9006339986.xlsx
+++ b/Data/EC/NIT-9006339986.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A80707FA-28C7-4E50-B033-BFCD4DE1F83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{480827A5-403F-4538-91A5-A172BBAE8867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AD796134-3AAD-4F97-A2F1-B479D0855A99}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0B6095A8-1B49-44EB-9A1C-0BECE29DCFC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -197,22 +197,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -406,29 +406,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,19 +447,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1FE67D6-0CCA-4995-BA9F-CB1831FAC2E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B5CF9B-5414-6E6D-456D-354748A54602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEF4F8E-205E-4395-B859-D8980D3ADC7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DC516C-B8E9-4816-871B-F283E61BC4FF}">
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -886,49 +892,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -936,7 +942,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -952,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9006339986</v>
       </c>
@@ -968,7 +974,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>433800</v>
       </c>
@@ -1037,18 +1043,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>72000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1800000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1060,18 +1066,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>54000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1350000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1083,18 +1089,18 @@
       <c r="D18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>54000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1350000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1106,18 +1112,18 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>54000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1350000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1129,18 +1135,18 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>54000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1350000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1152,18 +1158,18 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>54000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1350000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1175,47 +1181,47 @@
       <c r="D22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>54000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1350000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="26">
         <v>37800</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="26">
         <v>1350000</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="34"/>
       <c r="H28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1223,10 +1229,10 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="32"/>
+      <c r="C29" s="34"/>
       <c r="H29" s="1" t="s">
         <v>31</v>
       </c>
